--- a/projet1/LogiqueRow-Column.xlsx
+++ b/projet1/LogiqueRow-Column.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thaonhunguyen/code/projet1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F44DB37-244A-344A-9E69-C62BD706FE5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DBF5D0-2247-0040-93B5-DFF886F2FA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16280" xr2:uid="{8475041F-A398-1F4E-96A4-DE512162704A}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>j</t>
   </si>
   <si>
-    <t>i*5+j</t>
+    <t>i*5+j+i</t>
   </si>
 </sst>
 </file>
@@ -75,7 +75,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -83,14 +83,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB4C370-721C-D548-9B0F-65ADA41644B1}">
-  <dimension ref="B7:J24"/>
+  <dimension ref="B7:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -427,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E8">
         <v>2</v>
       </c>
@@ -435,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>3</v>
       </c>
@@ -443,150 +533,228 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J12">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J13">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J14">
         <f>J12-J13</f>
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
+        <f t="shared" ref="E18:I22" si="0">$B18*5+F$16</f>
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <v>3</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="6"/>
+      <c r="D19" s="9">
         <v>6</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="6">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="9">
         <v>8</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="H19" s="9">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <f>5*4/6</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N19">
+        <v>3508</v>
+      </c>
+      <c r="P19">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>11</v>
-      </c>
-      <c r="F20">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
         <v>12</v>
       </c>
-      <c r="G20">
+      <c r="E20" s="6">
         <v>13</v>
       </c>
-      <c r="H20">
+      <c r="F20" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21">
+      <c r="G20" s="6">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6">
+        <v>16</v>
+      </c>
+      <c r="I20" s="6">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <f>9/5*K19</f>
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>2480</v>
+      </c>
+      <c r="P20">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="10">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>18</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="12">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <f>N19/N20</f>
+        <v>1.4145161290322581</v>
+      </c>
+      <c r="P21">
+        <f>P19/P20</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>4</v>
       </c>
       <c r="D22">
+        <f t="shared" ref="D19:I22" si="1">$B22*5+D$16</f>
         <v>20</v>
       </c>
       <c r="E22">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="G22">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="H22">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
+      </c>
+      <c r="K24">
+        <f>1.4/0.9</f>
+        <v>1.5555555555555554</v>
       </c>
     </row>
   </sheetData>
